--- a/data/pca/factorExposure/factorExposure_2019-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1319600965892103</v>
+        <v>-0.07818647117616362</v>
       </c>
       <c r="C2">
-        <v>-0.00869499808101624</v>
+        <v>0.04160476616911354</v>
       </c>
       <c r="D2">
-        <v>-0.04015944410239797</v>
+        <v>0.002388569397761873</v>
       </c>
       <c r="E2">
-        <v>-0.1041028290401609</v>
+        <v>0.03823542241789097</v>
       </c>
       <c r="F2">
-        <v>0.1026349061221889</v>
+        <v>0.1424283156239719</v>
       </c>
       <c r="G2">
-        <v>-0.02165569546467449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1108044984707151</v>
+      </c>
+      <c r="H2">
+        <v>0.05083317902269931</v>
+      </c>
+      <c r="I2">
+        <v>0.002032591491091285</v>
+      </c>
+      <c r="J2">
+        <v>0.07711892274694378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.226972763707691</v>
+        <v>-0.1684103441238035</v>
       </c>
       <c r="C3">
-        <v>0.1005266925345532</v>
+        <v>0.08487289835176465</v>
       </c>
       <c r="D3">
-        <v>0.05803653580091778</v>
+        <v>-0.05669728172418081</v>
       </c>
       <c r="E3">
-        <v>-0.3138392803496379</v>
+        <v>-0.02306172458980836</v>
       </c>
       <c r="F3">
-        <v>0.01122241600643815</v>
+        <v>0.370084949755391</v>
       </c>
       <c r="G3">
-        <v>-0.1254321156645938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.092992720696411</v>
+      </c>
+      <c r="H3">
+        <v>0.2782486588174389</v>
+      </c>
+      <c r="I3">
+        <v>0.1042747735860632</v>
+      </c>
+      <c r="J3">
+        <v>0.3144495935347524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1017112267236324</v>
+        <v>-0.07425563819075461</v>
       </c>
       <c r="C4">
-        <v>0.03073518421090523</v>
+        <v>0.03184777061002736</v>
       </c>
       <c r="D4">
-        <v>-0.02363924542035321</v>
+        <v>-0.03662075078025948</v>
       </c>
       <c r="E4">
-        <v>-0.07445334987726834</v>
+        <v>0.03207709066852561</v>
       </c>
       <c r="F4">
-        <v>0.03527143898630544</v>
+        <v>0.08259391135604262</v>
       </c>
       <c r="G4">
-        <v>-0.03988738620053915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04463948054321108</v>
+      </c>
+      <c r="H4">
+        <v>0.02327191020794779</v>
+      </c>
+      <c r="I4">
+        <v>0.01429844537479493</v>
+      </c>
+      <c r="J4">
+        <v>0.06793295055749107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01703421723596801</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003973675872617865</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009507543540394479</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003172003538371964</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0007008305403120114</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02060245324477548</v>
+      </c>
+      <c r="H6">
+        <v>0.003359532018505627</v>
+      </c>
+      <c r="I6">
+        <v>-0.008192792698798485</v>
+      </c>
+      <c r="J6">
+        <v>0.0007991812470553943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04328341209943069</v>
+        <v>-0.0351925068647044</v>
       </c>
       <c r="C7">
-        <v>0.005283072856479144</v>
+        <v>-0.002183060452838153</v>
       </c>
       <c r="D7">
-        <v>-0.03077335961674767</v>
+        <v>-0.04119623635148326</v>
       </c>
       <c r="E7">
-        <v>-0.07397905492784605</v>
+        <v>0.02637754971419482</v>
       </c>
       <c r="F7">
-        <v>-0.05222214577994531</v>
+        <v>0.05620185579298553</v>
       </c>
       <c r="G7">
-        <v>-0.0002554302358843239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005195390192506344</v>
+      </c>
+      <c r="H7">
+        <v>0.04546589751441318</v>
+      </c>
+      <c r="I7">
+        <v>-0.02188118326417023</v>
+      </c>
+      <c r="J7">
+        <v>0.04595722505141736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04349111462274265</v>
+        <v>-0.02971796067027386</v>
       </c>
       <c r="C8">
-        <v>0.0430624974570056</v>
+        <v>0.03471619976398668</v>
       </c>
       <c r="D8">
-        <v>-0.0009624465719395957</v>
+        <v>-0.0373207146740864</v>
       </c>
       <c r="E8">
-        <v>-0.07069650772156492</v>
+        <v>0.01217743624407743</v>
       </c>
       <c r="F8">
-        <v>0.005149155615049232</v>
+        <v>0.07367988032939768</v>
       </c>
       <c r="G8">
-        <v>-0.02210937398469312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02050496536981844</v>
+      </c>
+      <c r="H8">
+        <v>0.04834802559631181</v>
+      </c>
+      <c r="I8">
+        <v>0.01172237529627824</v>
+      </c>
+      <c r="J8">
+        <v>0.07266428976658164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08859872630394469</v>
+        <v>-0.0619464086481082</v>
       </c>
       <c r="C9">
-        <v>0.03189349847749561</v>
+        <v>0.029100844599402</v>
       </c>
       <c r="D9">
-        <v>-0.03039204359720716</v>
+        <v>-0.04044750413214452</v>
       </c>
       <c r="E9">
-        <v>-0.06215021897467738</v>
+        <v>0.03084172565918408</v>
       </c>
       <c r="F9">
-        <v>0.02394693837323531</v>
+        <v>0.08329480649407012</v>
       </c>
       <c r="G9">
-        <v>-0.05676569358509568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04160372484509967</v>
+      </c>
+      <c r="H9">
+        <v>0.0194385198103998</v>
+      </c>
+      <c r="I9">
+        <v>-0.00233741886390803</v>
+      </c>
+      <c r="J9">
+        <v>0.03838899961247134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.005635314260683766</v>
+        <v>-0.0213963799856594</v>
       </c>
       <c r="C10">
-        <v>-0.1577438838859004</v>
+        <v>-0.1255929594026078</v>
       </c>
       <c r="D10">
-        <v>0.01574339887102004</v>
+        <v>0.09245727043969124</v>
       </c>
       <c r="E10">
-        <v>-0.06580313364076137</v>
+        <v>-0.02022515335366936</v>
       </c>
       <c r="F10">
-        <v>0.01632925492223343</v>
+        <v>0.0705522847319536</v>
       </c>
       <c r="G10">
-        <v>0.02177312863269327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02380727322716741</v>
+      </c>
+      <c r="H10">
+        <v>-0.002369284372010809</v>
+      </c>
+      <c r="I10">
+        <v>0.1104790323107527</v>
+      </c>
+      <c r="J10">
+        <v>0.03970743034242313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05839650141639934</v>
+        <v>-0.04871165468285948</v>
       </c>
       <c r="C11">
-        <v>0.005631725902667414</v>
+        <v>0.02543340582402777</v>
       </c>
       <c r="D11">
-        <v>0.009814071653097852</v>
+        <v>-0.006904133721715887</v>
       </c>
       <c r="E11">
-        <v>-0.03887984678151175</v>
+        <v>0.00450123328316286</v>
       </c>
       <c r="F11">
-        <v>0.00693532073049206</v>
+        <v>0.0397715472969626</v>
       </c>
       <c r="G11">
-        <v>0.0225649065166642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008939099990632863</v>
+      </c>
+      <c r="H11">
+        <v>0.0008438641354945419</v>
+      </c>
+      <c r="I11">
+        <v>-0.02768878827015497</v>
+      </c>
+      <c r="J11">
+        <v>0.03631428291669242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04571508615062336</v>
+        <v>-0.04628850328798522</v>
       </c>
       <c r="C12">
-        <v>0.01254891453709219</v>
+        <v>0.01868093262781953</v>
       </c>
       <c r="D12">
-        <v>0.005648933964637216</v>
+        <v>-0.01570900141619306</v>
       </c>
       <c r="E12">
-        <v>-0.02814214959644276</v>
+        <v>0.007962707649242312</v>
       </c>
       <c r="F12">
-        <v>-0.001468906792251472</v>
+        <v>0.0179833763861709</v>
       </c>
       <c r="G12">
-        <v>0.0004173621622147498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0001342997322183583</v>
+      </c>
+      <c r="H12">
+        <v>0.002329798937568022</v>
+      </c>
+      <c r="I12">
+        <v>-0.02292580774769931</v>
+      </c>
+      <c r="J12">
+        <v>0.01903779398173171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06439251172813353</v>
+        <v>-0.04245434449589482</v>
       </c>
       <c r="C13">
-        <v>0.0165880305712986</v>
+        <v>0.03114997902082791</v>
       </c>
       <c r="D13">
-        <v>0.01588020287562315</v>
+        <v>-0.0009899801186424805</v>
       </c>
       <c r="E13">
-        <v>-0.1052926433236869</v>
+        <v>0.004429499234594683</v>
       </c>
       <c r="F13">
-        <v>0.0154524109966494</v>
+        <v>0.104130412548071</v>
       </c>
       <c r="G13">
-        <v>0.001413796156556304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02309521435645498</v>
+      </c>
+      <c r="H13">
+        <v>0.04595337989669439</v>
+      </c>
+      <c r="I13">
+        <v>-0.01191138315413058</v>
+      </c>
+      <c r="J13">
+        <v>0.0628617326301677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03814070544643352</v>
+        <v>-0.02937211793050698</v>
       </c>
       <c r="C14">
-        <v>0.008189963600319075</v>
+        <v>0.0123590529793625</v>
       </c>
       <c r="D14">
-        <v>-0.02138139941180032</v>
+        <v>-0.01466733263987066</v>
       </c>
       <c r="E14">
-        <v>-0.01814525230039927</v>
+        <v>0.02385442926237148</v>
       </c>
       <c r="F14">
-        <v>0.001577307750868569</v>
+        <v>0.03708627022558376</v>
       </c>
       <c r="G14">
-        <v>0.02174176731061194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03043049814854443</v>
+      </c>
+      <c r="H14">
+        <v>0.04994878239204371</v>
+      </c>
+      <c r="I14">
+        <v>0.004880277235857505</v>
+      </c>
+      <c r="J14">
+        <v>0.02258766738980455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04900700270893549</v>
+        <v>-0.04401605969110773</v>
       </c>
       <c r="C16">
-        <v>0.02160111230089294</v>
+        <v>0.02936255401670993</v>
       </c>
       <c r="D16">
-        <v>0.01354352358627202</v>
+        <v>-0.0164281799467562</v>
       </c>
       <c r="E16">
-        <v>-0.03337577655645733</v>
+        <v>0.001299973872786697</v>
       </c>
       <c r="F16">
-        <v>-0.005117315882311087</v>
+        <v>0.03354880720297176</v>
       </c>
       <c r="G16">
-        <v>0.007262721264473774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.003568868569026531</v>
+      </c>
+      <c r="H16">
+        <v>0.00777182103739203</v>
+      </c>
+      <c r="I16">
+        <v>-0.02439484632597214</v>
+      </c>
+      <c r="J16">
+        <v>0.029249262558835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05250723539488707</v>
+        <v>-0.0464283540529549</v>
       </c>
       <c r="C19">
-        <v>0.02949053577236086</v>
+        <v>0.03672020957527162</v>
       </c>
       <c r="D19">
-        <v>0.009425144137019299</v>
+        <v>-0.0212736908724462</v>
       </c>
       <c r="E19">
-        <v>-0.07078142886252109</v>
+        <v>0.01247376658882962</v>
       </c>
       <c r="F19">
-        <v>-0.01578178388599522</v>
+        <v>0.08260043438904741</v>
       </c>
       <c r="G19">
-        <v>0.02595401673702294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01346717811444381</v>
+      </c>
+      <c r="H19">
+        <v>0.08345968574737668</v>
+      </c>
+      <c r="I19">
+        <v>0.01697136621743073</v>
+      </c>
+      <c r="J19">
+        <v>0.05689593401940105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03921830185090727</v>
+        <v>-0.01921450809636399</v>
       </c>
       <c r="C20">
-        <v>0.03669697331469195</v>
+        <v>0.02409039025162674</v>
       </c>
       <c r="D20">
-        <v>-0.01081531493076892</v>
+        <v>-0.023607553672248</v>
       </c>
       <c r="E20">
-        <v>-0.06125143569375078</v>
+        <v>0.01689054252370021</v>
       </c>
       <c r="F20">
-        <v>-0.01460173816194167</v>
+        <v>0.06763498545067131</v>
       </c>
       <c r="G20">
-        <v>0.007540541619206677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01633013828066764</v>
+      </c>
+      <c r="H20">
+        <v>0.07016670994913507</v>
+      </c>
+      <c r="I20">
+        <v>-0.006984213167540731</v>
+      </c>
+      <c r="J20">
+        <v>0.08561744680313282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04133856105336107</v>
+        <v>-0.02350745232047966</v>
       </c>
       <c r="C21">
-        <v>0.01977787326625212</v>
+        <v>0.01836630285768249</v>
       </c>
       <c r="D21">
-        <v>0.0006312636834982163</v>
+        <v>-0.02986741727844355</v>
       </c>
       <c r="E21">
-        <v>-0.08994861760095467</v>
+        <v>0.001096217758402043</v>
       </c>
       <c r="F21">
-        <v>0.04664983739516805</v>
+        <v>0.07666761032755101</v>
       </c>
       <c r="G21">
-        <v>0.004715296812818905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0349782014924991</v>
+      </c>
+      <c r="H21">
+        <v>0.02482203922930154</v>
+      </c>
+      <c r="I21">
+        <v>-0.0187853301733549</v>
+      </c>
+      <c r="J21">
+        <v>0.02906322937728687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05077022901255213</v>
+        <v>-0.04307827176601795</v>
       </c>
       <c r="C24">
-        <v>0.01426261999430543</v>
+        <v>0.02029411049050372</v>
       </c>
       <c r="D24">
-        <v>0.004303448076768711</v>
+        <v>-0.01042570779578027</v>
       </c>
       <c r="E24">
-        <v>-0.04169748041695694</v>
+        <v>0.006318809348920754</v>
       </c>
       <c r="F24">
-        <v>-0.003381391162658518</v>
+        <v>0.04011895675489158</v>
       </c>
       <c r="G24">
-        <v>0.003298938529353094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003521668624964843</v>
+      </c>
+      <c r="H24">
+        <v>0.00602330992309119</v>
+      </c>
+      <c r="I24">
+        <v>-0.02505418667736669</v>
+      </c>
+      <c r="J24">
+        <v>0.03669176002524182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05051242807525506</v>
+        <v>-0.04535156119831719</v>
       </c>
       <c r="C25">
-        <v>0.004829271881388104</v>
+        <v>0.0202556644492409</v>
       </c>
       <c r="D25">
-        <v>0.006695670552557216</v>
+        <v>-0.009377885708962991</v>
       </c>
       <c r="E25">
-        <v>-0.04083536463257574</v>
+        <v>0.004164109945630912</v>
       </c>
       <c r="F25">
-        <v>0.006795286100338334</v>
+        <v>0.0440701652422215</v>
       </c>
       <c r="G25">
-        <v>0.01077930682066013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003687931601059289</v>
+      </c>
+      <c r="H25">
+        <v>0.0006364300826563991</v>
+      </c>
+      <c r="I25">
+        <v>-0.02348255616744126</v>
+      </c>
+      <c r="J25">
+        <v>0.02782788480169454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01394792962285021</v>
+        <v>-0.01642556968420717</v>
       </c>
       <c r="C26">
-        <v>0.02566259261708165</v>
+        <v>0.02311502309830734</v>
       </c>
       <c r="D26">
-        <v>-0.0008853845493831527</v>
+        <v>-0.0100097503013467</v>
       </c>
       <c r="E26">
-        <v>-0.03514611838144462</v>
+        <v>-0.0007871880849142103</v>
       </c>
       <c r="F26">
-        <v>0.01418092939704453</v>
+        <v>0.04379275147270545</v>
       </c>
       <c r="G26">
-        <v>0.02190107045525365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02060502826665293</v>
+      </c>
+      <c r="H26">
+        <v>0.02919122809082201</v>
+      </c>
+      <c r="I26">
+        <v>-0.01730200036502952</v>
+      </c>
+      <c r="J26">
+        <v>0.03455998710598935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1124856056347686</v>
+        <v>-0.07967297057406857</v>
       </c>
       <c r="C27">
-        <v>0.02035165310552235</v>
+        <v>0.02691913089044735</v>
       </c>
       <c r="D27">
-        <v>-0.01732515309799563</v>
+        <v>-0.01983932929006125</v>
       </c>
       <c r="E27">
-        <v>-0.1028929162666986</v>
+        <v>0.03019179234677149</v>
       </c>
       <c r="F27">
-        <v>0.01252806055014923</v>
+        <v>0.07449689240309833</v>
       </c>
       <c r="G27">
-        <v>-0.01444911138275186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01613275684746104</v>
+      </c>
+      <c r="H27">
+        <v>0.006936835333889496</v>
+      </c>
+      <c r="I27">
+        <v>-0.0005380227154563978</v>
+      </c>
+      <c r="J27">
+        <v>0.04689620884202506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.005180809586500708</v>
+        <v>-0.03913532878424204</v>
       </c>
       <c r="C28">
-        <v>-0.2444460428644718</v>
+        <v>-0.1957573897351867</v>
       </c>
       <c r="D28">
-        <v>0.01683805098213463</v>
+        <v>0.1316623938229806</v>
       </c>
       <c r="E28">
-        <v>-0.04128603686958258</v>
+        <v>-0.03151302609051509</v>
       </c>
       <c r="F28">
-        <v>0.01848152825431807</v>
+        <v>0.05774237559532768</v>
       </c>
       <c r="G28">
-        <v>-0.0007402993143326627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0254135881858948</v>
+      </c>
+      <c r="H28">
+        <v>-0.01039432988969054</v>
+      </c>
+      <c r="I28">
+        <v>0.1480143869908766</v>
+      </c>
+      <c r="J28">
+        <v>0.06326681166161255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02245429040227774</v>
+        <v>-0.02142312686362856</v>
       </c>
       <c r="C29">
-        <v>0.0164997032345786</v>
+        <v>0.01212915256331335</v>
       </c>
       <c r="D29">
-        <v>-0.02426024693980232</v>
+        <v>-0.01919280791907213</v>
       </c>
       <c r="E29">
-        <v>-0.02463873732230242</v>
+        <v>0.0225996921696477</v>
       </c>
       <c r="F29">
-        <v>0.0144604679420105</v>
+        <v>0.03691606528698193</v>
       </c>
       <c r="G29">
-        <v>0.01586955096968422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03440361281405908</v>
+      </c>
+      <c r="H29">
+        <v>0.04622819903705414</v>
+      </c>
+      <c r="I29">
+        <v>-0.00214675978981058</v>
+      </c>
+      <c r="J29">
+        <v>0.01212434578464276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1094689813770083</v>
+        <v>-0.09359598615177515</v>
       </c>
       <c r="C30">
-        <v>0.01027582661827372</v>
+        <v>0.05866367836582598</v>
       </c>
       <c r="D30">
-        <v>-0.01746560227525279</v>
+        <v>0.009132270619937854</v>
       </c>
       <c r="E30">
-        <v>-0.1115913893612023</v>
+        <v>0.02930544821328238</v>
       </c>
       <c r="F30">
-        <v>0.00597482316836374</v>
+        <v>0.09993324756617937</v>
       </c>
       <c r="G30">
-        <v>0.04401267932614618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01403594740455778</v>
+      </c>
+      <c r="H30">
+        <v>0.01701704369183204</v>
+      </c>
+      <c r="I30">
+        <v>-0.02400403017424883</v>
+      </c>
+      <c r="J30">
+        <v>0.028410923999555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05838913002950211</v>
+        <v>-0.06246029218947675</v>
       </c>
       <c r="C31">
-        <v>0.01431436943027886</v>
+        <v>0.02465353524787828</v>
       </c>
       <c r="D31">
-        <v>-0.02043526639008204</v>
+        <v>-0.001510520416708803</v>
       </c>
       <c r="E31">
-        <v>0.01785886246903239</v>
+        <v>0.02012218244426174</v>
       </c>
       <c r="F31">
-        <v>0.01251789820528482</v>
+        <v>0.003326090100211398</v>
       </c>
       <c r="G31">
-        <v>0.04980256583181811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04414956492292837</v>
+      </c>
+      <c r="H31">
+        <v>0.02855947027502727</v>
+      </c>
+      <c r="I31">
+        <v>0.003325069364528647</v>
+      </c>
+      <c r="J31">
+        <v>0.01784268435436299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07059137424576103</v>
+        <v>-0.04584921646754628</v>
       </c>
       <c r="C32">
-        <v>0.02747884313156516</v>
+        <v>0.03659488046169163</v>
       </c>
       <c r="D32">
-        <v>-0.006860679432372184</v>
+        <v>-0.04073278650038588</v>
       </c>
       <c r="E32">
-        <v>-0.109457767113448</v>
+        <v>0.02381799908118625</v>
       </c>
       <c r="F32">
-        <v>-0.007610476942169704</v>
+        <v>0.08932122822442956</v>
       </c>
       <c r="G32">
-        <v>0.02186373798218135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01294408416414558</v>
+      </c>
+      <c r="H32">
+        <v>0.0359637149160548</v>
+      </c>
+      <c r="I32">
+        <v>0.002025591734246608</v>
+      </c>
+      <c r="J32">
+        <v>0.05308839635261402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07045026159125821</v>
+        <v>-0.05757410309895877</v>
       </c>
       <c r="C33">
-        <v>0.03450500795334131</v>
+        <v>0.05358940686529162</v>
       </c>
       <c r="D33">
-        <v>-0.003614658587048497</v>
+        <v>-0.01107862759789911</v>
       </c>
       <c r="E33">
-        <v>-0.07356540957860895</v>
+        <v>0.004347270073144217</v>
       </c>
       <c r="F33">
-        <v>0.04719622539678459</v>
+        <v>0.07857895940647425</v>
       </c>
       <c r="G33">
-        <v>0.01072179643691486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03657029869291658</v>
+      </c>
+      <c r="H33">
+        <v>0.03431413531632822</v>
+      </c>
+      <c r="I33">
+        <v>-0.03076287399955653</v>
+      </c>
+      <c r="J33">
+        <v>0.04550817086898383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04986475309663</v>
+        <v>-0.04537520834398641</v>
       </c>
       <c r="C34">
-        <v>0.01328794610752565</v>
+        <v>0.02276088377054323</v>
       </c>
       <c r="D34">
-        <v>0.003914572578402858</v>
+        <v>-0.01777417603955038</v>
       </c>
       <c r="E34">
-        <v>-0.02284913225306007</v>
+        <v>0.01298960852485074</v>
       </c>
       <c r="F34">
-        <v>-0.004781850914986945</v>
+        <v>0.03262322537899208</v>
       </c>
       <c r="G34">
-        <v>0.01167508709461117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004356740399164298</v>
+      </c>
+      <c r="H34">
+        <v>0.01059108746908559</v>
+      </c>
+      <c r="I34">
+        <v>-0.02262544583838082</v>
+      </c>
+      <c r="J34">
+        <v>0.02465581182804907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01361434463734099</v>
+        <v>-0.0162081289057007</v>
       </c>
       <c r="C36">
-        <v>-0.008325210433105978</v>
+        <v>0.0001595416922125632</v>
       </c>
       <c r="D36">
-        <v>-0.007036208764089584</v>
+        <v>-0.00496095287991891</v>
       </c>
       <c r="E36">
-        <v>-0.02035988280011056</v>
+        <v>0.007848906414625262</v>
       </c>
       <c r="F36">
-        <v>0.005726666643295519</v>
+        <v>0.02712369149576163</v>
       </c>
       <c r="G36">
-        <v>0.01601563890520653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02457512892760869</v>
+      </c>
+      <c r="H36">
+        <v>0.02598329660972594</v>
+      </c>
+      <c r="I36">
+        <v>-0.004460180215894176</v>
+      </c>
+      <c r="J36">
+        <v>0.00512605275937727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05693034964256606</v>
+        <v>-0.03416730781364154</v>
       </c>
       <c r="C38">
-        <v>0.008332821330971739</v>
+        <v>0.00981723568642049</v>
       </c>
       <c r="D38">
-        <v>-0.02181104906947486</v>
+        <v>-0.008811237968131602</v>
       </c>
       <c r="E38">
-        <v>-0.03680013997718131</v>
+        <v>0.008925841990753717</v>
       </c>
       <c r="F38">
-        <v>0.001869673910840159</v>
+        <v>0.05092546277865156</v>
       </c>
       <c r="G38">
-        <v>-0.02517236211771052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02773073009737421</v>
+      </c>
+      <c r="H38">
+        <v>0.01249680621598064</v>
+      </c>
+      <c r="I38">
+        <v>-0.009715301394279563</v>
+      </c>
+      <c r="J38">
+        <v>0.0005836033948450084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07699894471319967</v>
+        <v>-0.05786829837911892</v>
       </c>
       <c r="C39">
-        <v>0.01070733625398413</v>
+        <v>0.03803849899117982</v>
       </c>
       <c r="D39">
-        <v>-7.132294523487944e-05</v>
+        <v>-0.01652509607333333</v>
       </c>
       <c r="E39">
-        <v>-0.0415331374895147</v>
+        <v>0.01323382361509748</v>
       </c>
       <c r="F39">
-        <v>0.01955458850852341</v>
+        <v>0.05574396243239006</v>
       </c>
       <c r="G39">
-        <v>0.01140618637469673</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01722436381899527</v>
+      </c>
+      <c r="H39">
+        <v>-0.0009929996874522369</v>
+      </c>
+      <c r="I39">
+        <v>-0.04803462985596471</v>
+      </c>
+      <c r="J39">
+        <v>0.03016885672531161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07625499743257051</v>
+        <v>-0.05665170554457165</v>
       </c>
       <c r="C40">
-        <v>0.03037116684104546</v>
+        <v>0.04651300911008215</v>
       </c>
       <c r="D40">
-        <v>0.0007105739335414216</v>
+        <v>-0.003896289932454846</v>
       </c>
       <c r="E40">
-        <v>-0.09784766272877449</v>
+        <v>0.01866074429530042</v>
       </c>
       <c r="F40">
-        <v>0.02922954170062407</v>
+        <v>0.09672106019180411</v>
       </c>
       <c r="G40">
-        <v>-0.03766480985758788</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02712815921602074</v>
+      </c>
+      <c r="H40">
+        <v>0.05091085438166652</v>
+      </c>
+      <c r="I40">
+        <v>-0.02924920351419072</v>
+      </c>
+      <c r="J40">
+        <v>0.1123971787411912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003900463502559582</v>
+        <v>-0.002719924605578478</v>
       </c>
       <c r="C41">
-        <v>0.01242274379188433</v>
+        <v>0.009980643320595802</v>
       </c>
       <c r="D41">
-        <v>-0.02167933611532325</v>
+        <v>-0.007200436094684806</v>
       </c>
       <c r="E41">
-        <v>-0.0130615726696712</v>
+        <v>0.00604985735780747</v>
       </c>
       <c r="F41">
-        <v>0.02999026717156266</v>
+        <v>0.01482060810616424</v>
       </c>
       <c r="G41">
-        <v>0.02062887627607755</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03890575497817442</v>
+      </c>
+      <c r="H41">
+        <v>0.02960949387989384</v>
+      </c>
+      <c r="I41">
+        <v>0.01358999091962149</v>
+      </c>
+      <c r="J41">
+        <v>0.02019996814143225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1263838440682803</v>
+        <v>-0.2164669645460586</v>
       </c>
       <c r="C42">
-        <v>0.1894675356958342</v>
+        <v>0.1764609102076636</v>
       </c>
       <c r="D42">
-        <v>0.9280950074439525</v>
+        <v>-0.02865285704109509</v>
       </c>
       <c r="E42">
-        <v>0.09782134814762015</v>
+        <v>-0.9299530990012609</v>
       </c>
       <c r="F42">
-        <v>-0.03632385368417712</v>
+        <v>-0.1636429671192459</v>
       </c>
       <c r="G42">
-        <v>0.06926889134652908</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009813879833731703</v>
+      </c>
+      <c r="H42">
+        <v>0.001171682084860197</v>
+      </c>
+      <c r="I42">
+        <v>0.03889154894987727</v>
+      </c>
+      <c r="J42">
+        <v>0.03900825260556884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008099164453770864</v>
+        <v>-0.004939379768281199</v>
       </c>
       <c r="C43">
-        <v>0.01726635466996648</v>
+        <v>0.01478980930764713</v>
       </c>
       <c r="D43">
-        <v>-0.01442129165925854</v>
+        <v>-0.007221829982137</v>
       </c>
       <c r="E43">
-        <v>-0.0343065909009274</v>
+        <v>0.006216469515287778</v>
       </c>
       <c r="F43">
-        <v>0.005673221494351291</v>
+        <v>0.02784170829742443</v>
       </c>
       <c r="G43">
-        <v>0.01947899316517035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02219954479747652</v>
+      </c>
+      <c r="H43">
+        <v>0.03063566579166043</v>
+      </c>
+      <c r="I43">
+        <v>0.00372934854610987</v>
+      </c>
+      <c r="J43">
+        <v>0.0274098425435905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04079012397200806</v>
+        <v>-0.02792954895885142</v>
       </c>
       <c r="C44">
-        <v>0.03866438066486786</v>
+        <v>0.03613480940605871</v>
       </c>
       <c r="D44">
-        <v>-0.006467062726901758</v>
+        <v>-0.02551164199126531</v>
       </c>
       <c r="E44">
-        <v>-0.1182241746372367</v>
+        <v>0.004783688832569293</v>
       </c>
       <c r="F44">
-        <v>0.08941112415137926</v>
+        <v>0.1224611388626894</v>
       </c>
       <c r="G44">
-        <v>0.02107690550533866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06356690677229532</v>
+      </c>
+      <c r="H44">
+        <v>0.09883422546393468</v>
+      </c>
+      <c r="I44">
+        <v>0.01476282506844804</v>
+      </c>
+      <c r="J44">
+        <v>0.03977023004717559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0251918997883296</v>
+        <v>-0.02355278608449075</v>
       </c>
       <c r="C46">
-        <v>0.01497622685826853</v>
+        <v>0.02600464549967323</v>
       </c>
       <c r="D46">
-        <v>-0.0238503072374394</v>
+        <v>-0.01371102000478307</v>
       </c>
       <c r="E46">
-        <v>-0.02366974699432093</v>
+        <v>0.01972696379562057</v>
       </c>
       <c r="F46">
-        <v>0.02500306849130682</v>
+        <v>0.04532250164582329</v>
       </c>
       <c r="G46">
-        <v>0.02519288064620825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03115479457945647</v>
+      </c>
+      <c r="H46">
+        <v>0.04945275701735951</v>
+      </c>
+      <c r="I46">
+        <v>0.0005745381498041664</v>
+      </c>
+      <c r="J46">
+        <v>0.03007426423767847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0854720909223743</v>
+        <v>-0.09161369300684979</v>
       </c>
       <c r="C47">
-        <v>0.009056439877497019</v>
+        <v>0.01978478363094653</v>
       </c>
       <c r="D47">
-        <v>-0.02101737493524712</v>
+        <v>-0.003390803033757585</v>
       </c>
       <c r="E47">
-        <v>0.02192111394424165</v>
+        <v>0.02426601032770029</v>
       </c>
       <c r="F47">
-        <v>0.01150616962742569</v>
+        <v>-0.009522450201798279</v>
       </c>
       <c r="G47">
-        <v>0.03050003632188625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04842686049354674</v>
+      </c>
+      <c r="H47">
+        <v>0.05154964871507561</v>
+      </c>
+      <c r="I47">
+        <v>0.00518968612975661</v>
+      </c>
+      <c r="J47">
+        <v>0.02804728616875642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01765342126783389</v>
+        <v>-0.01865118198660699</v>
       </c>
       <c r="C48">
-        <v>0.02013701612086791</v>
+        <v>0.01765603559774447</v>
       </c>
       <c r="D48">
-        <v>-0.01532569025717673</v>
+        <v>-0.01318691423677833</v>
       </c>
       <c r="E48">
-        <v>-0.02944527194106161</v>
+        <v>0.01082793087928774</v>
       </c>
       <c r="F48">
-        <v>0.00857738695374667</v>
+        <v>0.03027941770680402</v>
       </c>
       <c r="G48">
-        <v>0.004254109516393171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01581951970891026</v>
+      </c>
+      <c r="H48">
+        <v>0.02183381093837018</v>
+      </c>
+      <c r="I48">
+        <v>0.005499904701967976</v>
+      </c>
+      <c r="J48">
+        <v>0.01921572912973867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.0870279123958827</v>
+        <v>-0.08747171063544124</v>
       </c>
       <c r="C50">
-        <v>0.03147950798603272</v>
+        <v>0.02680320124699045</v>
       </c>
       <c r="D50">
-        <v>-0.0257101733941263</v>
+        <v>-0.02725152485054447</v>
       </c>
       <c r="E50">
-        <v>0.01544182128715983</v>
+        <v>0.02117494045308724</v>
       </c>
       <c r="F50">
-        <v>0.002111163716199935</v>
+        <v>-0.002296995975007563</v>
       </c>
       <c r="G50">
-        <v>0.03735713788203501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007898098632596192</v>
+      </c>
+      <c r="H50">
+        <v>0.04041837015221478</v>
+      </c>
+      <c r="I50">
+        <v>-0.01623544536188934</v>
+      </c>
+      <c r="J50">
+        <v>-0.002793119320985052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06858936634497159</v>
+        <v>-0.0466542950436093</v>
       </c>
       <c r="C51">
-        <v>-0.02327432382712687</v>
+        <v>0.007542138831598034</v>
       </c>
       <c r="D51">
-        <v>0.005207722309006032</v>
+        <v>0.01179765586868079</v>
       </c>
       <c r="E51">
-        <v>-0.08216376432375923</v>
+        <v>0.008616233385409955</v>
       </c>
       <c r="F51">
-        <v>0.05216060124783757</v>
+        <v>0.09513522938509517</v>
       </c>
       <c r="G51">
-        <v>0.05819952319867749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0564781253420813</v>
+      </c>
+      <c r="H51">
+        <v>0.04385599252282268</v>
+      </c>
+      <c r="I51">
+        <v>0.009016982837914708</v>
+      </c>
+      <c r="J51">
+        <v>0.05255947249641645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1453101037053807</v>
+        <v>-0.1269656176400766</v>
       </c>
       <c r="C53">
-        <v>0.008184400285216173</v>
+        <v>0.03407757965400348</v>
       </c>
       <c r="D53">
-        <v>-0.04200693033363671</v>
+        <v>-0.01031701786894482</v>
       </c>
       <c r="E53">
-        <v>0.04121078554471752</v>
+        <v>0.04609654228991623</v>
       </c>
       <c r="F53">
-        <v>-0.003200119228956243</v>
+        <v>-0.0387067570226286</v>
       </c>
       <c r="G53">
-        <v>0.03872060434353718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02635864303359665</v>
+      </c>
+      <c r="H53">
+        <v>-0.004235443580618856</v>
+      </c>
+      <c r="I53">
+        <v>0.02293135681862449</v>
+      </c>
+      <c r="J53">
+        <v>0.04247121695292858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02950209788238662</v>
+        <v>-0.0253908479417124</v>
       </c>
       <c r="C54">
-        <v>-0.003724944239967036</v>
+        <v>0.002847002895380527</v>
       </c>
       <c r="D54">
-        <v>-0.02944979297112613</v>
+        <v>-0.007493587575818062</v>
       </c>
       <c r="E54">
-        <v>-0.02924784006798455</v>
+        <v>0.02445404524563751</v>
       </c>
       <c r="F54">
-        <v>0.04611010388284657</v>
+        <v>0.03888479256608058</v>
       </c>
       <c r="G54">
-        <v>0.002324087229176551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.053139054744675</v>
+      </c>
+      <c r="H54">
+        <v>0.03965826322529719</v>
+      </c>
+      <c r="I54">
+        <v>0.02614301077019668</v>
+      </c>
+      <c r="J54">
+        <v>0.01082529853426895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1002942629117371</v>
+        <v>-0.1015988305949853</v>
       </c>
       <c r="C55">
-        <v>-0.005180295080518189</v>
+        <v>0.01280160763054872</v>
       </c>
       <c r="D55">
-        <v>-0.03838157507432852</v>
+        <v>-0.02045083384831311</v>
       </c>
       <c r="E55">
-        <v>0.007852835212558086</v>
+        <v>0.03142073283235673</v>
       </c>
       <c r="F55">
-        <v>-0.03959984224046519</v>
+        <v>-0.02890357856218134</v>
       </c>
       <c r="G55">
-        <v>-0.02104214568140394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006102176895673433</v>
+      </c>
+      <c r="H55">
+        <v>0.01416903229568852</v>
+      </c>
+      <c r="I55">
+        <v>0.004674500928592878</v>
+      </c>
+      <c r="J55">
+        <v>0.03787135161684337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1794461456902915</v>
+        <v>-0.169619443885754</v>
       </c>
       <c r="C56">
-        <v>-0.01463238134363128</v>
+        <v>0.01515690107361235</v>
       </c>
       <c r="D56">
-        <v>-0.08175120416979997</v>
+        <v>-0.008158411785897908</v>
       </c>
       <c r="E56">
-        <v>0.08451452674596419</v>
+        <v>0.08438394874249358</v>
       </c>
       <c r="F56">
-        <v>-0.07590111161070714</v>
+        <v>-0.08485159620375619</v>
       </c>
       <c r="G56">
-        <v>0.002817466119794157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0271140165250002</v>
+      </c>
+      <c r="H56">
+        <v>-0.04041494127986586</v>
+      </c>
+      <c r="I56">
+        <v>0.01326727247057376</v>
+      </c>
+      <c r="J56">
+        <v>0.048424429912276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09688860873082707</v>
+        <v>-0.07250242962448573</v>
       </c>
       <c r="C57">
-        <v>0.02351219705629656</v>
+        <v>0.04051034757389745</v>
       </c>
       <c r="D57">
-        <v>-0.02038375426092598</v>
+        <v>-0.004874463694314225</v>
       </c>
       <c r="E57">
-        <v>-0.04382594106725018</v>
+        <v>0.01308136137517266</v>
       </c>
       <c r="F57">
-        <v>0.02677611559388952</v>
+        <v>0.05998444344002329</v>
       </c>
       <c r="G57">
-        <v>0.01972971597882912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0234371406034989</v>
+      </c>
+      <c r="H57">
+        <v>0.02562516833027594</v>
+      </c>
+      <c r="I57">
+        <v>-0.01882864952987677</v>
+      </c>
+      <c r="J57">
+        <v>0.03257250784346344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1780962207167837</v>
+        <v>-0.2004408638847221</v>
       </c>
       <c r="C58">
-        <v>0.005888743268833327</v>
+        <v>0.1133617997949474</v>
       </c>
       <c r="D58">
-        <v>0.04377208929316512</v>
+        <v>0.03456361487776821</v>
       </c>
       <c r="E58">
-        <v>-0.122373855441876</v>
+        <v>-0.01318044778485686</v>
       </c>
       <c r="F58">
-        <v>-0.05946173993217873</v>
+        <v>0.2385576383215404</v>
       </c>
       <c r="G58">
-        <v>0.01029663185736165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1328103469016298</v>
+      </c>
+      <c r="H58">
+        <v>0.3912880199316054</v>
+      </c>
+      <c r="I58">
+        <v>0.1477348680160915</v>
+      </c>
+      <c r="J58">
+        <v>-0.7461550780802247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.007319598068938752</v>
+        <v>-0.04026932672954929</v>
       </c>
       <c r="C59">
-        <v>-0.202021960366142</v>
+        <v>-0.1520027968122271</v>
       </c>
       <c r="D59">
-        <v>-0.01029849952380303</v>
+        <v>0.1244062275189841</v>
       </c>
       <c r="E59">
-        <v>-0.05662914205725827</v>
+        <v>0.00402791431351518</v>
       </c>
       <c r="F59">
-        <v>0.01035489513242273</v>
+        <v>0.07190721310663879</v>
       </c>
       <c r="G59">
-        <v>0.007782257479200115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00329400577372846</v>
+      </c>
+      <c r="H59">
+        <v>-0.02192657594010216</v>
+      </c>
+      <c r="I59">
+        <v>0.06201911121760487</v>
+      </c>
+      <c r="J59">
+        <v>0.01177152881054035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1867080006334107</v>
+        <v>-0.1851180779288745</v>
       </c>
       <c r="C60">
-        <v>-0.1064261310496255</v>
+        <v>-0.0102210926884367</v>
       </c>
       <c r="D60">
-        <v>-0.003820468060092555</v>
+        <v>0.06872478693485082</v>
       </c>
       <c r="E60">
-        <v>-0.1842677623628908</v>
+        <v>0.01152705642040579</v>
       </c>
       <c r="F60">
-        <v>0.05333179227235733</v>
+        <v>0.2019999467433032</v>
       </c>
       <c r="G60">
-        <v>0.02178932157186425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09845865891021972</v>
+      </c>
+      <c r="H60">
+        <v>-0.2592494764678387</v>
+      </c>
+      <c r="I60">
+        <v>-0.09142024372416031</v>
+      </c>
+      <c r="J60">
+        <v>-0.02380150399034639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04880355879273868</v>
+        <v>-0.03803173325875914</v>
       </c>
       <c r="C61">
-        <v>0.0006161775515538953</v>
+        <v>0.02035704413683971</v>
       </c>
       <c r="D61">
-        <v>0.005696726428927165</v>
+        <v>-0.01275602005290729</v>
       </c>
       <c r="E61">
-        <v>-0.04204758851464342</v>
+        <v>0.003090151234108955</v>
       </c>
       <c r="F61">
-        <v>0.009775876785156349</v>
+        <v>0.04091381972780539</v>
       </c>
       <c r="G61">
-        <v>0.003525459402010865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008640399611649635</v>
+      </c>
+      <c r="H61">
+        <v>-0.002218558095164937</v>
+      </c>
+      <c r="I61">
+        <v>-0.04273170341624648</v>
+      </c>
+      <c r="J61">
+        <v>0.008877852979413381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0483593195398604</v>
+        <v>-0.03222423611387366</v>
       </c>
       <c r="C63">
-        <v>-0.002559779188581495</v>
+        <v>0.01804999925177359</v>
       </c>
       <c r="D63">
-        <v>-0.01511128205462127</v>
+        <v>-0.008749209140268369</v>
       </c>
       <c r="E63">
-        <v>-0.03228242103770076</v>
+        <v>0.01403135512998629</v>
       </c>
       <c r="F63">
-        <v>0.003598562305145193</v>
+        <v>0.02835710542416373</v>
       </c>
       <c r="G63">
-        <v>0.01649008317364523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01796549501097866</v>
+      </c>
+      <c r="H63">
+        <v>0.03834622036064249</v>
+      </c>
+      <c r="I63">
+        <v>0.01323582692741955</v>
+      </c>
+      <c r="J63">
+        <v>0.04650002902782292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08184870580282469</v>
+        <v>-0.05564589089580149</v>
       </c>
       <c r="C64">
-        <v>0.04232858691139507</v>
+        <v>0.03445251570247995</v>
       </c>
       <c r="D64">
-        <v>-0.05823477762456022</v>
+        <v>-0.03920115095243039</v>
       </c>
       <c r="E64">
-        <v>-0.06348097676120296</v>
+        <v>0.03776086427055411</v>
       </c>
       <c r="F64">
-        <v>0.05797604530884655</v>
+        <v>0.05558045825074947</v>
       </c>
       <c r="G64">
-        <v>-0.02858244369738102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05490297808407282</v>
+      </c>
+      <c r="H64">
+        <v>-0.007605113864333875</v>
+      </c>
+      <c r="I64">
+        <v>-0.0101880070933862</v>
+      </c>
+      <c r="J64">
+        <v>0.09651115230948307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01885073814648276</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003193809367393453</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009712687155160521</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.003243252759829248</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002372079405207561</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02167991640526174</v>
+      </c>
+      <c r="H65">
+        <v>0.0004095717039955119</v>
+      </c>
+      <c r="I65">
+        <v>-0.009801274976742904</v>
+      </c>
+      <c r="J65">
+        <v>0.001575668737614746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09630884777061757</v>
+        <v>-0.06909678772327421</v>
       </c>
       <c r="C66">
-        <v>0.02365696828372237</v>
+        <v>0.05467760551776375</v>
       </c>
       <c r="D66">
-        <v>-0.03484125715314361</v>
+        <v>-0.0181960314031161</v>
       </c>
       <c r="E66">
-        <v>-0.07917439594829853</v>
+        <v>0.04133111131547868</v>
       </c>
       <c r="F66">
-        <v>0.04338154000194645</v>
+        <v>0.06988977609824853</v>
       </c>
       <c r="G66">
-        <v>0.02100252239214259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01543488151479726</v>
+      </c>
+      <c r="H66">
+        <v>-0.003986690563052759</v>
+      </c>
+      <c r="I66">
+        <v>-0.0663194246056695</v>
+      </c>
+      <c r="J66">
+        <v>0.05147247645026843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06393523777186055</v>
+        <v>-0.0458283604613921</v>
       </c>
       <c r="C67">
-        <v>-0.01650489222288176</v>
+        <v>-0.002459876250185261</v>
       </c>
       <c r="D67">
-        <v>-0.00745906259407294</v>
+        <v>0.004256221403590425</v>
       </c>
       <c r="E67">
-        <v>-0.03061993589032849</v>
+        <v>0.00713389148205653</v>
       </c>
       <c r="F67">
-        <v>0.005564909390839955</v>
+        <v>0.04001533625447706</v>
       </c>
       <c r="G67">
-        <v>-0.03441964555105789</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03288463171392162</v>
+      </c>
+      <c r="H67">
+        <v>-0.01020927057972022</v>
+      </c>
+      <c r="I67">
+        <v>-0.04016045653504027</v>
+      </c>
+      <c r="J67">
+        <v>-0.0005661199673977047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004803447307478786</v>
+        <v>-0.0464625813062047</v>
       </c>
       <c r="C68">
-        <v>-0.2484020077848743</v>
+        <v>-0.1831103895177</v>
       </c>
       <c r="D68">
-        <v>0.006518237092708765</v>
+        <v>0.1406384394544432</v>
       </c>
       <c r="E68">
-        <v>-0.04244259385396425</v>
+        <v>-0.0059821509775009</v>
       </c>
       <c r="F68">
-        <v>0.005118905062231425</v>
+        <v>0.05681403538613372</v>
       </c>
       <c r="G68">
-        <v>0.01865601583344804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.005065220228617355</v>
+      </c>
+      <c r="H68">
+        <v>-0.01273604016915784</v>
+      </c>
+      <c r="I68">
+        <v>0.1715220401520918</v>
+      </c>
+      <c r="J68">
+        <v>0.0003093612215244598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07093059215954238</v>
+        <v>-0.07208589082228779</v>
       </c>
       <c r="C69">
-        <v>0.01306942293861901</v>
+        <v>0.02217033981547997</v>
       </c>
       <c r="D69">
-        <v>-0.02327488955614756</v>
+        <v>-0.00605586668398323</v>
       </c>
       <c r="E69">
-        <v>0.01099045067045164</v>
+        <v>0.02884333118175291</v>
       </c>
       <c r="F69">
-        <v>0.00226790771149555</v>
+        <v>0.001100587470090124</v>
       </c>
       <c r="G69">
-        <v>0.02569864374900402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02965173759892292</v>
+      </c>
+      <c r="H69">
+        <v>0.02490614684814994</v>
+      </c>
+      <c r="I69">
+        <v>-0.01751722619194957</v>
+      </c>
+      <c r="J69">
+        <v>0.02651086448763913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006886737652331769</v>
+        <v>-0.05243585622270832</v>
       </c>
       <c r="C71">
-        <v>-0.2731054754536392</v>
+        <v>-0.1957975510990564</v>
       </c>
       <c r="D71">
-        <v>0.009946267991184456</v>
+        <v>0.1593174446916254</v>
       </c>
       <c r="E71">
-        <v>-0.08062306793187039</v>
+        <v>-0.02974158303593267</v>
       </c>
       <c r="F71">
-        <v>0.01904581267440512</v>
+        <v>0.08173562730269844</v>
       </c>
       <c r="G71">
-        <v>0.03979093899281729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01415285767509578</v>
+      </c>
+      <c r="H71">
+        <v>-0.03501000680970073</v>
+      </c>
+      <c r="I71">
+        <v>0.1293492882883778</v>
+      </c>
+      <c r="J71">
+        <v>0.02778485587496669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1152807924619436</v>
+        <v>-0.1194295933774232</v>
       </c>
       <c r="C72">
-        <v>-0.009822270532838205</v>
+        <v>0.02544150511919322</v>
       </c>
       <c r="D72">
-        <v>-0.03687173491775764</v>
+        <v>-0.006621740897478862</v>
       </c>
       <c r="E72">
-        <v>-0.1013384502668575</v>
+        <v>0.05640978323285471</v>
       </c>
       <c r="F72">
-        <v>-0.01091769332755756</v>
+        <v>0.08827335140623453</v>
       </c>
       <c r="G72">
-        <v>-0.02650227284977644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04468009846693907</v>
+      </c>
+      <c r="H72">
+        <v>0.00608778184339314</v>
+      </c>
+      <c r="I72">
+        <v>-0.02516321739854521</v>
+      </c>
+      <c r="J72">
+        <v>-0.1112969900356049</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2749631837466101</v>
+        <v>-0.2663788736589296</v>
       </c>
       <c r="C73">
-        <v>-0.1774698143418553</v>
+        <v>-0.02330117324976383</v>
       </c>
       <c r="D73">
-        <v>0.06284947689262964</v>
+        <v>0.1312742062499371</v>
       </c>
       <c r="E73">
-        <v>-0.3409358470484061</v>
+        <v>-0.03281915585368226</v>
       </c>
       <c r="F73">
-        <v>0.0572198905161437</v>
+        <v>0.3134601931483985</v>
       </c>
       <c r="G73">
-        <v>0.004981785799362372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2065647850538777</v>
+      </c>
+      <c r="H73">
+        <v>-0.4478623498034779</v>
+      </c>
+      <c r="I73">
+        <v>-0.29341073368077</v>
+      </c>
+      <c r="J73">
+        <v>-0.09456862201327958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1581828347412662</v>
+        <v>-0.1525202076996342</v>
       </c>
       <c r="C74">
-        <v>-0.004998252257330006</v>
+        <v>0.0274872276376805</v>
       </c>
       <c r="D74">
-        <v>-0.04177497652391638</v>
+        <v>0.0004896459307620322</v>
       </c>
       <c r="E74">
-        <v>0.01654270790938016</v>
+        <v>0.04778164116148671</v>
       </c>
       <c r="F74">
-        <v>-0.05572229102113232</v>
+        <v>-0.05206989477792093</v>
       </c>
       <c r="G74">
-        <v>0.05067865327695542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01894784343099339</v>
+      </c>
+      <c r="H74">
+        <v>-0.02909405071928749</v>
+      </c>
+      <c r="I74">
+        <v>-0.01457988895778912</v>
+      </c>
+      <c r="J74">
+        <v>0.0821024107426965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2343359985332968</v>
+        <v>-0.2452393335513003</v>
       </c>
       <c r="C75">
-        <v>-0.01585865248228686</v>
+        <v>0.03168440593857628</v>
       </c>
       <c r="D75">
-        <v>-0.06925983982390364</v>
+        <v>0.01469223501084052</v>
       </c>
       <c r="E75">
-        <v>0.1241355009834018</v>
+        <v>0.1067750689554798</v>
       </c>
       <c r="F75">
-        <v>-0.04113297516604159</v>
+        <v>-0.1409347112108429</v>
       </c>
       <c r="G75">
-        <v>0.04627473910034065</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004063786854415546</v>
+      </c>
+      <c r="H75">
+        <v>-0.02355377522527825</v>
+      </c>
+      <c r="I75">
+        <v>0.07730082321694313</v>
+      </c>
+      <c r="J75">
+        <v>0.05601981913562343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2469941108318787</v>
+        <v>-0.268748833123467</v>
       </c>
       <c r="C76">
-        <v>-0.01537783046718046</v>
+        <v>0.01363576649639918</v>
       </c>
       <c r="D76">
-        <v>-0.1106935532838696</v>
+        <v>-0.01804022103545191</v>
       </c>
       <c r="E76">
-        <v>0.1180390825290385</v>
+        <v>0.1317898216151592</v>
       </c>
       <c r="F76">
-        <v>-0.07022602193799406</v>
+        <v>-0.1749680499621836</v>
       </c>
       <c r="G76">
-        <v>0.03684371636105185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04893579560694179</v>
+      </c>
+      <c r="H76">
+        <v>-0.04215697265627776</v>
+      </c>
+      <c r="I76">
+        <v>-0.001968688839141487</v>
+      </c>
+      <c r="J76">
+        <v>0.06298579248004384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1330057496310848</v>
+        <v>-0.1290799792625872</v>
       </c>
       <c r="C77">
-        <v>0.01909045716491563</v>
+        <v>0.06255177624464965</v>
       </c>
       <c r="D77">
-        <v>0.0514054271718799</v>
+        <v>-0.0279767386015759</v>
       </c>
       <c r="E77">
-        <v>-0.144943427720579</v>
+        <v>-0.04114653099427761</v>
       </c>
       <c r="F77">
-        <v>0.004291787676300891</v>
+        <v>0.1610042445383842</v>
       </c>
       <c r="G77">
-        <v>-0.06708008582953894</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01477018128478721</v>
+      </c>
+      <c r="H77">
+        <v>0.2014513536397546</v>
+      </c>
+      <c r="I77">
+        <v>0.1404454481430433</v>
+      </c>
+      <c r="J77">
+        <v>0.1548025969327396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08616751712320415</v>
+        <v>-0.08014103558286421</v>
       </c>
       <c r="C78">
-        <v>0.03968229845501858</v>
+        <v>0.06156004696699197</v>
       </c>
       <c r="D78">
-        <v>0.02069044674848114</v>
+        <v>-0.04416040507768344</v>
       </c>
       <c r="E78">
-        <v>-0.05154776504229675</v>
+        <v>-2.325452773518818e-05</v>
       </c>
       <c r="F78">
-        <v>0.01229331815102681</v>
+        <v>0.07337777533031208</v>
       </c>
       <c r="G78">
-        <v>0.01510037211648384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01074978113256031</v>
+      </c>
+      <c r="H78">
+        <v>0.02630951773944925</v>
+      </c>
+      <c r="I78">
+        <v>0.01182020731956922</v>
+      </c>
+      <c r="J78">
+        <v>0.05243311271001514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07319053148293118</v>
+        <v>-0.1515338396222526</v>
       </c>
       <c r="C80">
-        <v>0.01523824316917169</v>
+        <v>-0.575323469817103</v>
       </c>
       <c r="D80">
-        <v>0.0154156465582208</v>
+        <v>-0.7835613547375045</v>
       </c>
       <c r="E80">
-        <v>0.03011749819325344</v>
+        <v>-0.06844650537712729</v>
       </c>
       <c r="F80">
-        <v>-0.1610683873934251</v>
+        <v>0.0488175088526723</v>
       </c>
       <c r="G80">
-        <v>-0.9271999438025659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04319456642149917</v>
+      </c>
+      <c r="H80">
+        <v>-0.0567254814266392</v>
+      </c>
+      <c r="I80">
+        <v>0.008118826130697407</v>
+      </c>
+      <c r="J80">
+        <v>-0.1036309883459269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.162806724953272</v>
+        <v>-0.1801572023649952</v>
       </c>
       <c r="C81">
-        <v>-0.01184822572965946</v>
+        <v>0.01059022839665966</v>
       </c>
       <c r="D81">
-        <v>-0.0583173505151165</v>
+        <v>0.002787475395191137</v>
       </c>
       <c r="E81">
-        <v>0.1498959681211033</v>
+        <v>0.08667515793320732</v>
       </c>
       <c r="F81">
-        <v>-0.09635221627724178</v>
+        <v>-0.1585749894847539</v>
       </c>
       <c r="G81">
-        <v>0.03874208929676876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02876292214356386</v>
+      </c>
+      <c r="H81">
+        <v>-0.01076637234137292</v>
+      </c>
+      <c r="I81">
+        <v>0.04521290325540498</v>
+      </c>
+      <c r="J81">
+        <v>0.0207739869785898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09367315001971822</v>
+        <v>-0.06779196087766035</v>
       </c>
       <c r="C83">
-        <v>0.04078462969969441</v>
+        <v>0.04799192336579629</v>
       </c>
       <c r="D83">
-        <v>0.08143164913167984</v>
+        <v>-0.01265462817728769</v>
       </c>
       <c r="E83">
-        <v>-0.01230373546940732</v>
+        <v>-0.04054243333362435</v>
       </c>
       <c r="F83">
-        <v>0.06262033751626055</v>
+        <v>0.04848785002299875</v>
       </c>
       <c r="G83">
-        <v>0.01416494165155004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06012756557904859</v>
+      </c>
+      <c r="H83">
+        <v>0.01489472728853493</v>
+      </c>
+      <c r="I83">
+        <v>-0.006273842538665082</v>
+      </c>
+      <c r="J83">
+        <v>0.08037616007007921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2373849628021626</v>
+        <v>-0.2531494699211325</v>
       </c>
       <c r="C85">
-        <v>0.05047791510911644</v>
+        <v>0.05217631684857163</v>
       </c>
       <c r="D85">
-        <v>-0.06688929390895808</v>
+        <v>-0.02327088848135273</v>
       </c>
       <c r="E85">
-        <v>0.1507340719041942</v>
+        <v>0.08836812635733141</v>
       </c>
       <c r="F85">
-        <v>-0.06768433460312923</v>
+        <v>-0.1812300963237846</v>
       </c>
       <c r="G85">
-        <v>0.03472896082337953</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008241057497332283</v>
+      </c>
+      <c r="H85">
+        <v>0.01446450862808674</v>
+      </c>
+      <c r="I85">
+        <v>0.02758322339890982</v>
+      </c>
+      <c r="J85">
+        <v>0.1049843959095345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04692692892044758</v>
+        <v>-0.02567481919166888</v>
       </c>
       <c r="C86">
-        <v>0.04627717376494089</v>
+        <v>0.05262144149037312</v>
       </c>
       <c r="D86">
-        <v>-0.01046199362499818</v>
+        <v>-0.03544435079228037</v>
       </c>
       <c r="E86">
-        <v>-0.06396901977437403</v>
+        <v>0.007793613457232696</v>
       </c>
       <c r="F86">
-        <v>0.0003313088324563485</v>
+        <v>0.07086329753211837</v>
       </c>
       <c r="G86">
-        <v>0.03274314329194235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007421931504453404</v>
+      </c>
+      <c r="H86">
+        <v>0.06282000333589359</v>
+      </c>
+      <c r="I86">
+        <v>0.01391367893551543</v>
+      </c>
+      <c r="J86">
+        <v>0.05057921421612216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.01990045256103234</v>
+        <v>-0.0338721091319314</v>
       </c>
       <c r="C87">
-        <v>-0.05151710560813</v>
+        <v>-0.01072852856379233</v>
       </c>
       <c r="D87">
-        <v>-0.005079983511885129</v>
+        <v>0.0134171919856122</v>
       </c>
       <c r="E87">
-        <v>-0.09603209219350131</v>
+        <v>0.002319816276903811</v>
       </c>
       <c r="F87">
-        <v>-0.01526486679713615</v>
+        <v>0.1032115604338802</v>
       </c>
       <c r="G87">
-        <v>0.03386494082292394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0205174894817188</v>
+      </c>
+      <c r="H87">
+        <v>0.01798843268239288</v>
+      </c>
+      <c r="I87">
+        <v>-0.01961437254351694</v>
+      </c>
+      <c r="J87">
+        <v>0.009134686586033428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04033626636762971</v>
+        <v>-0.0283970433435313</v>
       </c>
       <c r="C88">
-        <v>0.03232429792694709</v>
+        <v>0.01311141166333711</v>
       </c>
       <c r="D88">
-        <v>-0.008267240685434458</v>
+        <v>-0.02285300026078535</v>
       </c>
       <c r="E88">
-        <v>0.01194419498130739</v>
+        <v>0.01581266015287679</v>
       </c>
       <c r="F88">
-        <v>-0.01065759562838993</v>
+        <v>-0.01098755128301637</v>
       </c>
       <c r="G88">
-        <v>0.006499122934872267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04039935533958824</v>
+      </c>
+      <c r="H88">
+        <v>0.03664372229025036</v>
+      </c>
+      <c r="I88">
+        <v>-0.03521814887900337</v>
+      </c>
+      <c r="J88">
+        <v>0.02699550479692154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01241658833763859</v>
+        <v>-0.06764085571971626</v>
       </c>
       <c r="C89">
-        <v>-0.4165829981225086</v>
+        <v>-0.3019025014511076</v>
       </c>
       <c r="D89">
-        <v>0.08733983310894228</v>
+        <v>0.2531118215358374</v>
       </c>
       <c r="E89">
-        <v>0.01544930145487861</v>
+        <v>-0.04888770900600824</v>
       </c>
       <c r="F89">
-        <v>0.008520762514121316</v>
+        <v>0.03594188674551831</v>
       </c>
       <c r="G89">
-        <v>0.02729886905934121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04944449674622169</v>
+      </c>
+      <c r="H89">
+        <v>0.03818396883368692</v>
+      </c>
+      <c r="I89">
+        <v>0.2796490799511019</v>
+      </c>
+      <c r="J89">
+        <v>0.0363656358276598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.008513741690887136</v>
+        <v>-0.04747133944433904</v>
       </c>
       <c r="C90">
-        <v>-0.3101984419933551</v>
+        <v>-0.2670164147972264</v>
       </c>
       <c r="D90">
-        <v>0.02714048095472857</v>
+        <v>0.2020953699421932</v>
       </c>
       <c r="E90">
-        <v>-0.0393634852094313</v>
+        <v>-0.03349671912082922</v>
       </c>
       <c r="F90">
-        <v>0.01399211840424337</v>
+        <v>0.03606969866713178</v>
       </c>
       <c r="G90">
-        <v>0.04078572839375775</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02512843510735335</v>
+      </c>
+      <c r="H90">
+        <v>0.001391777494448156</v>
+      </c>
+      <c r="I90">
+        <v>0.2264850010089566</v>
+      </c>
+      <c r="J90">
+        <v>0.05066152927422013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2930711355268381</v>
+        <v>-0.3063600263791604</v>
       </c>
       <c r="C91">
-        <v>0.01941227880523586</v>
+        <v>0.0423236108598944</v>
       </c>
       <c r="D91">
-        <v>-0.08240642206654678</v>
+        <v>-0.008771111919853518</v>
       </c>
       <c r="E91">
-        <v>0.2937559834106763</v>
+        <v>0.1001506196497541</v>
       </c>
       <c r="F91">
-        <v>-0.1426506591156001</v>
+        <v>-0.2970512578150937</v>
       </c>
       <c r="G91">
-        <v>-0.03374591200548963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03797233366432338</v>
+      </c>
+      <c r="H91">
+        <v>-0.01032373020126381</v>
+      </c>
+      <c r="I91">
+        <v>0.09291731818785384</v>
+      </c>
+      <c r="J91">
+        <v>0.1115059166320619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.001770798520614707</v>
+        <v>-0.1042420726276525</v>
       </c>
       <c r="C92">
-        <v>-0.4300310161492459</v>
+        <v>-0.3704687920944426</v>
       </c>
       <c r="D92">
-        <v>0.193637430870947</v>
+        <v>0.2517560747904005</v>
       </c>
       <c r="E92">
-        <v>0.1517151468360721</v>
+        <v>-0.06986612895606917</v>
       </c>
       <c r="F92">
-        <v>-0.07804248169813911</v>
+        <v>-0.1177344667013288</v>
       </c>
       <c r="G92">
-        <v>-0.1459572888748279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1266076081038821</v>
+      </c>
+      <c r="H92">
+        <v>0.4332041578382959</v>
+      </c>
+      <c r="I92">
+        <v>-0.7308493918957282</v>
+      </c>
+      <c r="J92">
+        <v>0.03706082526071409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01942268581235403</v>
+        <v>-0.05283724529437986</v>
       </c>
       <c r="C93">
-        <v>-0.3726218444076975</v>
+        <v>-0.3159309733864448</v>
       </c>
       <c r="D93">
-        <v>0.06804240422193787</v>
+        <v>0.2569361915772579</v>
       </c>
       <c r="E93">
-        <v>0.03715802787370508</v>
+        <v>-0.06563871678551743</v>
       </c>
       <c r="F93">
-        <v>-0.01264878033784212</v>
+        <v>0.002266149383252704</v>
       </c>
       <c r="G93">
-        <v>-0.03491145866750488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03617520738967934</v>
+      </c>
+      <c r="H93">
+        <v>-0.02696903388613035</v>
+      </c>
+      <c r="I93">
+        <v>0.1892200676863112</v>
+      </c>
+      <c r="J93">
+        <v>0.006949368320291744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2752787556152433</v>
+        <v>-0.3048062672042783</v>
       </c>
       <c r="C94">
-        <v>-0.07164517537404086</v>
+        <v>0.008391424023371341</v>
       </c>
       <c r="D94">
-        <v>-0.0327861299544213</v>
+        <v>0.04676043978075437</v>
       </c>
       <c r="E94">
-        <v>0.3512579138378393</v>
+        <v>0.1347780692448233</v>
       </c>
       <c r="F94">
-        <v>-0.3927137825765382</v>
+        <v>-0.3368290901946522</v>
       </c>
       <c r="G94">
-        <v>0.1629389636456536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1822824131660304</v>
+      </c>
+      <c r="H94">
+        <v>0.158238471104466</v>
+      </c>
+      <c r="I94">
+        <v>0.06510342437209661</v>
+      </c>
+      <c r="J94">
+        <v>-0.1737392469098065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1962155021656967</v>
+        <v>-0.1290905774956232</v>
       </c>
       <c r="C95">
-        <v>-0.03029259305161527</v>
+        <v>0.0989741302124726</v>
       </c>
       <c r="D95">
-        <v>-0.002028223046418263</v>
+        <v>0.05190423504245367</v>
       </c>
       <c r="E95">
-        <v>0.3990930866314592</v>
+        <v>0.02656320868614049</v>
       </c>
       <c r="F95">
-        <v>0.8357800785570485</v>
+        <v>-0.06282237135545359</v>
       </c>
       <c r="G95">
-        <v>-0.1131332071795194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8870816334256491</v>
+      </c>
+      <c r="H95">
+        <v>-0.2269385173706657</v>
+      </c>
+      <c r="I95">
+        <v>-0.0001635853272118543</v>
+      </c>
+      <c r="J95">
+        <v>-0.2777278976280573</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2184980858385717</v>
+        <v>-0.2079545294477359</v>
       </c>
       <c r="C98">
-        <v>-0.124231778412092</v>
+        <v>-0.01839657051761038</v>
       </c>
       <c r="D98">
-        <v>0.05086007158087939</v>
+        <v>0.09413492361375611</v>
       </c>
       <c r="E98">
-        <v>-0.1036821220537198</v>
+        <v>-0.02890549408800446</v>
       </c>
       <c r="F98">
-        <v>0.05724505664709726</v>
+        <v>0.1631274696516485</v>
       </c>
       <c r="G98">
-        <v>0.06601187972785214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.10522542352909</v>
+      </c>
+      <c r="H98">
+        <v>-0.3229410527619733</v>
+      </c>
+      <c r="I98">
+        <v>-0.1419104825427816</v>
+      </c>
+      <c r="J98">
+        <v>-0.08964951530444623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02217118779407061</v>
+        <v>-0.01507018135662584</v>
       </c>
       <c r="C101">
-        <v>0.01687282840169725</v>
+        <v>0.02332048868972307</v>
       </c>
       <c r="D101">
-        <v>-0.025799133501835</v>
+        <v>-0.02220348049181661</v>
       </c>
       <c r="E101">
-        <v>-0.0251680583048928</v>
+        <v>0.02888787895170734</v>
       </c>
       <c r="F101">
-        <v>0.01423978266815021</v>
+        <v>0.06636445276909678</v>
       </c>
       <c r="G101">
-        <v>0.01588103150898281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02455685598860636</v>
+      </c>
+      <c r="H101">
+        <v>0.1091724416210384</v>
+      </c>
+      <c r="I101">
+        <v>-0.006063768287808884</v>
+      </c>
+      <c r="J101">
+        <v>-0.1129974512094855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1191073178497868</v>
+        <v>-0.1207917200626567</v>
       </c>
       <c r="C102">
-        <v>0.01300566667971021</v>
+        <v>0.01924811098433894</v>
       </c>
       <c r="D102">
-        <v>-0.04241254137703099</v>
+        <v>-0.01399000268902195</v>
       </c>
       <c r="E102">
-        <v>0.08186821605504258</v>
+        <v>0.05308283196111656</v>
       </c>
       <c r="F102">
-        <v>-0.002943256564598078</v>
+        <v>-0.09525165855810797</v>
       </c>
       <c r="G102">
-        <v>-0.003512535973167613</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02047014287438727</v>
+      </c>
+      <c r="H102">
+        <v>-0.024507862746278</v>
+      </c>
+      <c r="I102">
+        <v>0.03413297476329667</v>
+      </c>
+      <c r="J102">
+        <v>0.05275504450379161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01761151826422971</v>
+        <v>-0.03075015883852545</v>
       </c>
       <c r="C103">
-        <v>-0.0001678346426976354</v>
+        <v>0.003157496507251977</v>
       </c>
       <c r="D103">
-        <v>-0.01266812272960884</v>
+        <v>-0.01043135587732973</v>
       </c>
       <c r="E103">
-        <v>0.02625748564283685</v>
+        <v>0.02051814967970346</v>
       </c>
       <c r="F103">
-        <v>-0.009025288320722614</v>
+        <v>-0.0233217795480867</v>
       </c>
       <c r="G103">
-        <v>0.02072547643328486</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01660348196441732</v>
+      </c>
+      <c r="H103">
+        <v>0.01261197590191026</v>
+      </c>
+      <c r="I103">
+        <v>0.02458825250646768</v>
+      </c>
+      <c r="J103">
+        <v>0.01717674988940657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
